--- a/Processing/Demographics.Facebook.Processing/Data/2-IBOPE-20181027.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/2-IBOPE-20181027.xlsx
@@ -71,10 +71,10 @@
 Centro Oeste</t>
   </si>
   <si>
-    <t>Bolsonaro</t>
-  </si>
-  <si>
-    <t>Haddad</t>
+    <t>Jair Bolsonaro</t>
+  </si>
+  <si>
+    <t>Fernando Haddad</t>
   </si>
   <si>
     <t>Em branco/ nulo/ nenhum</t>
